--- a/Code/QNN_EMG_modelo_full_RL/experiments/experimentsQNN/experiments_windowSize200_stride20_epochs1.xlsx
+++ b/Code/QNN_EMG_modelo_full_RL/experiments/experimentsQNN/experiments_windowSize200_stride20_epochs1.xlsx
@@ -16,6 +16,7 @@
     <sheet name="USER8" sheetId="9" r:id="rId11"/>
     <sheet name="USER10" sheetId="10" r:id="rId12"/>
     <sheet name="USER9" sheetId="11" r:id="rId13"/>
+    <sheet name="USER288" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="336">
   <si>
     <t>QNN - EMG - 5 gestures - Experience Replay</t>
   </si>
@@ -827,6 +828,210 @@
   </si>
   <si>
     <t>29%</t>
+  </si>
+  <si>
+    <t>QNN - EMG - 5 gestures - Experience Replay</t>
+  </si>
+  <si>
+    <t>USER 288</t>
+  </si>
+  <si>
+    <t>TRAINING RESULTS</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>numNeuronsLayers</t>
+  </si>
+  <si>
+    <t>RepTraining</t>
+  </si>
+  <si>
+    <t>Sampling type</t>
+  </si>
+  <si>
+    <t>learningRate</t>
+  </si>
+  <si>
+    <t>numEpochsToIncreaseMomentum</t>
+  </si>
+  <si>
+    <t>miniBatchSize</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Count Wins Recog</t>
+  </si>
+  <si>
+    <t>Count Wins Classif</t>
+  </si>
+  <si>
+    <t>Count Wins per window</t>
+  </si>
+  <si>
+    <t>Count Loses Recog</t>
+  </si>
+  <si>
+    <t>Count Loses Classif</t>
+  </si>
+  <si>
+    <t>Count Loses per window</t>
+  </si>
+  <si>
+    <t>Recognition</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>QNN - EMG - 5 gestures - Experience Replay</t>
+  </si>
+  <si>
+    <t>USER 288</t>
+  </si>
+  <si>
+    <t>VALIDATION RESULTS</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>numNeuronsLayers</t>
+  </si>
+  <si>
+    <t>RepTraining</t>
+  </si>
+  <si>
+    <t>Sampling type</t>
+  </si>
+  <si>
+    <t>learningRate</t>
+  </si>
+  <si>
+    <t>numEpochsToIncreaseMomentum</t>
+  </si>
+  <si>
+    <t>miniBatchSize</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Count Wins Recog</t>
+  </si>
+  <si>
+    <t>Count Wins Classif</t>
+  </si>
+  <si>
+    <t>Count Wins per window</t>
+  </si>
+  <si>
+    <t>Count Loses Recog</t>
+  </si>
+  <si>
+    <t>Count Loses Classif</t>
+  </si>
+  <si>
+    <t>Count Loses per window</t>
+  </si>
+  <si>
+    <t>Recognition</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>Random Package</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
 </sst>
 </file>
@@ -847,7 +1052,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -931,11 +1136,33 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1013,6 +1240,28 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,6 +1687,866 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="true"/>
+    <col min="9" max="9" width="31.28515625" customWidth="true"/>
+    <col min="14" max="14" width="22.28515625" customWidth="true"/>
+    <col min="2" max="2" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="16" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="10" max="10" width="13.5703125" customWidth="true"/>
+    <col min="11" max="11" width="7.7109375" customWidth="true"/>
+    <col min="12" max="12" width="17" customWidth="true"/>
+    <col min="13" max="13" width="17.42578125" customWidth="true"/>
+    <col min="15" max="15" width="17.42578125" customWidth="true"/>
+    <col min="16" max="16" width="17.85546875" customWidth="true"/>
+    <col min="17" max="17" width="22.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="3.140625" customWidth="true"/>
+    <col min="4" max="4" width="3.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>27</v>
+      </c>
+      <c r="B3" s="0">
+        <v>40</v>
+      </c>
+      <c r="C3" s="0">
+        <v>50</v>
+      </c>
+      <c r="D3" s="0">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0">
+        <v>100</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="I3" s="0">
+        <v>50</v>
+      </c>
+      <c r="J3" s="0">
+        <v>25</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0">
+        <v>3</v>
+      </c>
+      <c r="M3" s="0">
+        <v>23</v>
+      </c>
+      <c r="N3" s="0">
+        <v>510</v>
+      </c>
+      <c r="O3" s="0">
+        <v>97</v>
+      </c>
+      <c r="P3" s="0">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>3293</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>28</v>
+      </c>
+      <c r="B4" s="0">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0">
+        <v>100</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="I4" s="0">
+        <v>50</v>
+      </c>
+      <c r="J4" s="0">
+        <v>25</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0">
+        <v>35</v>
+      </c>
+      <c r="N4" s="0">
+        <v>1798</v>
+      </c>
+      <c r="O4" s="0">
+        <v>100</v>
+      </c>
+      <c r="P4" s="0">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>2005</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0">
+        <v>50</v>
+      </c>
+      <c r="D5" s="0">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0">
+        <v>100</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="I5" s="0">
+        <v>50</v>
+      </c>
+      <c r="J5" s="0">
+        <v>25</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0">
+        <v>29</v>
+      </c>
+      <c r="N5" s="0">
+        <v>1760</v>
+      </c>
+      <c r="O5" s="0">
+        <v>100</v>
+      </c>
+      <c r="P5" s="0">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>2043</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0">
+        <v>50</v>
+      </c>
+      <c r="D6" s="0">
+        <v>50</v>
+      </c>
+      <c r="E6" s="0">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0">
+        <v>100</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="I6" s="0">
+        <v>50</v>
+      </c>
+      <c r="J6" s="0">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0">
+        <v>28</v>
+      </c>
+      <c r="N6" s="0">
+        <v>1752</v>
+      </c>
+      <c r="O6" s="0">
+        <v>100</v>
+      </c>
+      <c r="P6" s="0">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>2051</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0">
+        <v>40</v>
+      </c>
+      <c r="C7" s="0">
+        <v>50</v>
+      </c>
+      <c r="D7" s="0">
+        <v>50</v>
+      </c>
+      <c r="E7" s="0">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0">
+        <v>100</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="I7" s="0">
+        <v>50</v>
+      </c>
+      <c r="J7" s="0">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0">
+        <v>29</v>
+      </c>
+      <c r="N7" s="0">
+        <v>1804</v>
+      </c>
+      <c r="O7" s="0">
+        <v>100</v>
+      </c>
+      <c r="P7" s="0">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>1999</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0">
+        <v>40</v>
+      </c>
+      <c r="C8" s="0">
+        <v>50</v>
+      </c>
+      <c r="D8" s="0">
+        <v>50</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0">
+        <v>100</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="I8" s="0">
+        <v>50</v>
+      </c>
+      <c r="J8" s="0">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0">
+        <v>29</v>
+      </c>
+      <c r="N8" s="0">
+        <v>1794</v>
+      </c>
+      <c r="O8" s="0">
+        <v>100</v>
+      </c>
+      <c r="P8" s="0">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>2009</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0">
+        <v>50</v>
+      </c>
+      <c r="D12" s="0">
+        <v>50</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0">
+        <v>13</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="I12" s="0">
+        <v>50</v>
+      </c>
+      <c r="J12" s="0">
+        <v>25</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0">
+        <v>228</v>
+      </c>
+      <c r="O12" s="0">
+        <v>13</v>
+      </c>
+      <c r="P12" s="0">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>267</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0">
+        <v>50</v>
+      </c>
+      <c r="E13" s="0">
+        <v>6</v>
+      </c>
+      <c r="F13" s="0">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="I13" s="0">
+        <v>50</v>
+      </c>
+      <c r="J13" s="0">
+        <v>25</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0">
+        <v>228</v>
+      </c>
+      <c r="O13" s="0">
+        <v>13</v>
+      </c>
+      <c r="P13" s="0">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>267</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0">
+        <v>50</v>
+      </c>
+      <c r="D14" s="0">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0">
+        <v>6</v>
+      </c>
+      <c r="F14" s="0">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="I14" s="0">
+        <v>50</v>
+      </c>
+      <c r="J14" s="0">
+        <v>25</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0">
+        <v>228</v>
+      </c>
+      <c r="O14" s="0">
+        <v>13</v>
+      </c>
+      <c r="P14" s="0">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>267</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0">
+        <v>40</v>
+      </c>
+      <c r="C15" s="0">
+        <v>50</v>
+      </c>
+      <c r="D15" s="0">
+        <v>50</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="I15" s="0">
+        <v>50</v>
+      </c>
+      <c r="J15" s="0">
+        <v>25</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0">
+        <v>228</v>
+      </c>
+      <c r="O15" s="0">
+        <v>13</v>
+      </c>
+      <c r="P15" s="0">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>267</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0">
+        <v>40</v>
+      </c>
+      <c r="C16" s="0">
+        <v>50</v>
+      </c>
+      <c r="D16" s="0">
+        <v>50</v>
+      </c>
+      <c r="E16" s="0">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0">
+        <v>13</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="I16" s="0">
+        <v>50</v>
+      </c>
+      <c r="J16" s="0">
+        <v>25</v>
+      </c>
+      <c r="K16" s="0">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0">
+        <v>228</v>
+      </c>
+      <c r="O16" s="0">
+        <v>13</v>
+      </c>
+      <c r="P16" s="0">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>267</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0">
+        <v>50</v>
+      </c>
+      <c r="D17" s="0">
+        <v>50</v>
+      </c>
+      <c r="E17" s="0">
+        <v>6</v>
+      </c>
+      <c r="F17" s="0">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="I17" s="0">
+        <v>50</v>
+      </c>
+      <c r="J17" s="0">
+        <v>25</v>
+      </c>
+      <c r="K17" s="0">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0">
+        <v>228</v>
+      </c>
+      <c r="O17" s="0">
+        <v>13</v>
+      </c>
+      <c r="P17" s="0">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>267</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
